--- a/data/georgia_census/imereti/vani/population_total.xlsx
+++ b/data/georgia_census/imereti/vani/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7947C9-D5C1-48DC-BE18-991B71DD4B14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F089B1C3-C2D3-4C49-A302-2336AEF27A7F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C99E822B-CF9C-4D91-AD47-335491F115E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB26F1F2-B9A0-489E-BC00-B0864A573B2B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FF8C18-AA02-4C8D-817E-9DEBB5F43798}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB3F3B-368B-4006-A1DD-91EC9EF7DDEC}"/>
 </file>